--- a/拍照记录.xlsx
+++ b/拍照记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14640" yWindow="4360" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="23140" yWindow="3940" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>诺氏海链藻</t>
   </si>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>我们的计划每周去两次，先将所有的藻种拍一遍（现在还剩下四种），然后再挑清晰的藻种拍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,10 +156,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -489,58 +496,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:H17"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1">
-        <v>65</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -549,54 +554,54 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>65</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1">
-        <v>50</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1">
-        <v>30</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="1">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -605,10 +610,12 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -617,7 +624,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -629,13 +636,11 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -643,13 +648,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>60</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -657,13 +662,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>60</v>
+      </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1">
-        <v>8</v>
-      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -671,12 +676,12 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -685,47 +690,62 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
+      <c r="D14" s="1">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1">
-        <v>45</v>
-      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
+        <v>45</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A17:H17"/>
+  <mergeCells count="2">
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
